--- a/Local/Data/Export/DQ-Report_dqTestData_2020 .xlsx
+++ b/Local/Data/Export/DQ-Report_dqTestData_2020 .xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -388,12 +388,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>P_20085653</t>
+          <t>P_20085651</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F_101643</t>
+          <t>F_101641</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -401,24 +401,26 @@
           <t>E75.0</t>
         </is>
       </c>
-      <c r="D2">
-        <v>309151</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>846</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Orpha Code 309151 ist im BfArM-Mapping nicht enthalten.  Kodierung ist nicht eindeutig. Relation E75.0 - 309151 ist im BfArM nicht vorhanden.  ICD10-Orpha Zuordnung ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. Relation E75.0 - 846 ist im BfArM nicht vorhanden.  ICD10-Orpha Zuordnung ist gemäß BfArM nicht plausibel. </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>P_20085654</t>
+          <t>P_20085652</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F_101644</t>
+          <t>F_101642</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -426,139 +428,166 @@
           <t>E75.0</t>
         </is>
       </c>
-      <c r="D3">
-        <v>309247</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>797</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Orpha Code 309247 ist im BfArM-Mapping nicht enthalten.  Kodierung ist nicht eindeutig. Relation E75.0 - 309247 ist im BfArM nicht vorhanden.  ICD10-Orpha Zuordnung ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. Relation E75.0 - 797 ist im BfArM nicht vorhanden.  ICD10-Orpha Zuordnung ist gemäß BfArM nicht plausibel. </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>P_20085751</t>
+          <t>P_20085653</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F_101645</t>
+          <t>F_101643</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>G70</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>586</v>
+          <t>E75.0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>309151</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10 Code G70 ist im BfArM Mapping nicht enthalten.  ICD10-Orpha Zuordnung ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. Relation E75.0 - 309151 ist im BfArM nicht vorhanden.  ICD10-Orpha Zuordnung ist gemäß BfArM nicht plausibel. </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>P_20085752</t>
+          <t>P_20085654</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>F_101646</t>
+          <t>F_101644</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>G70</t>
-        </is>
-      </c>
-      <c r="D5">
-        <v>589</v>
+          <t>E75.0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>309247</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10 Code G70 ist im BfArM Mapping nicht enthalten.  ICD10-Orpha Zuordnung ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. Relation E75.0 - 309247 ist im BfArM nicht vorhanden.  ICD10-Orpha Zuordnung ist gemäß BfArM nicht plausibel. </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>P_20085753</t>
+          <t>P_20085751</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>F_101647</t>
+          <t>F_101645</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>E84.80</t>
-        </is>
-      </c>
-      <c r="D6">
-        <v>589</v>
+          <t>G70</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>586</t>
+        </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. Relation E84.80 - 589 ist im BfArM nicht vorhanden.  ICD10-Orpha Zuordnung ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10 Code G70 ist im BfArM Mapping nicht enthalten.  ICD10-Orpha Zuordnung ist gemäß BfArM nicht plausibel. </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>P_20085757</t>
+          <t>P_20085752</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>F_101651</t>
-        </is>
-      </c>
-      <c r="D7">
-        <v>586</v>
+          <t>F_101646</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>G70</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>589</t>
+        </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10 Code G70 ist im BfArM Mapping nicht enthalten.  ICD10-Orpha Zuordnung ist gemäß BfArM nicht plausibel. </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>P_20085758</t>
+          <t>P_20085753</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>F_101652</t>
-        </is>
-      </c>
-      <c r="D8">
-        <v>3</v>
+          <t>F_101647</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>E84.80</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>589</t>
+        </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Orpha Code 3 ist im BfArM-Mapping nicht enthalten.  Fall ist nicht eindeutig. Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. Relation E84.80 - 589 ist im BfArM nicht vorhanden.  ICD10-Orpha Zuordnung ist gemäß BfArM nicht plausibel. </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>P_20085761</t>
+          <t>P_20085757</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>F_101655</t>
+          <t>F_101651</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>586</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -570,178 +599,171 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>P_20085762</t>
+          <t>P_20085758</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>F_101656</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>E66.89</t>
-        </is>
-      </c>
-      <c r="D10">
-        <v>320</v>
+          <t>F_101652</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Orpha Code 320 ist im BfArM-Mapping nicht enthalten.  Kodierung ist nicht eindeutig. Relation E66.89 - 320 ist im BfArM nicht vorhanden.  ICD10-Orpha Zuordnung ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Orpha Code test ist nicht valide.  Fall ist nicht eindeutig. Fehlender ICD-Code.  </t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>P_20085763</t>
+          <t>P_20085761</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>F_101657</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>G35.9</t>
-        </is>
-      </c>
-      <c r="D11">
-        <v>71529</v>
+          <t>F_101655</t>
+        </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. Relation G35.9 - 71529 ist im BfArM nicht vorhanden.  ICD10-Orpha Zuordnung ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Fehlender ICD-Code.  </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>P_20085765</t>
+          <t>P_20085762</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>F_101658</t>
+          <t>F_101656</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>E75.2</t>
+          <t>E66.89</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>320</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD10 Kodierung E75.2 ist nicht eindeutig. ICD10-Orpha Relation ist gemäß Tracer-Diagnosenliste vom Typ 1-m.  Fehlender Orpha Code.  </t>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. Relation E66.89 - 320 ist im BfArM nicht vorhanden.  ICD10-Orpha Zuordnung ist gemäß BfArM nicht plausibel. </t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>P_20085766</t>
+          <t>P_20085763</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>F_101659</t>
+          <t>F_101657</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>E75.0</t>
+          <t>G35.9</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>71529</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD10 Kodierung E75.0 ist nicht eindeutig. ICD10-Orpha Relation ist gemäß Tracer-Diagnosenliste vom Typ 1-m.  Fehlender Orpha Code.  </t>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. Relation G35.9 - 71529 ist im BfArM nicht vorhanden.  ICD10-Orpha Zuordnung ist gemäß BfArM nicht plausibel. </t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>P_20085767</t>
+          <t>P_20085765</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>F_101660</t>
+          <t>F_101658</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>E74.0</t>
+          <t>E75.2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD10 Kodierung E74.0 ist nicht eindeutig. ICD10-Orpha Relation ist gemäß Tracer-Diagnosenliste vom Typ 1-m.  Fehlender Orpha Code.  </t>
+          <t xml:space="preserve">ICD10 Kodierung E75.2 ist nicht eindeutig. ICD10-Orpha Relation ist gemäß Tracer-Diagnosenliste vom Typ 1-m.  Fehlender Orpha Code.  </t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>P_20085768</t>
+          <t>P_20085766</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>F_101661</t>
+          <t>F_101659</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>E75.2</t>
-        </is>
-      </c>
-      <c r="D15">
-        <v>342</v>
+          <t>E75.0</t>
+        </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. Relation E75.2 - 342 ist im BfArM nicht vorhanden.  ICD10-Orpha Zuordnung ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">ICD10 Kodierung E75.0 ist nicht eindeutig. ICD10-Orpha Relation ist gemäß Tracer-Diagnosenliste vom Typ 1-m.  Fehlender Orpha Code.  </t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>P_20085769</t>
+          <t>P_20085767</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>F_101662</t>
+          <t>F_101660</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>E75.0</t>
-        </is>
-      </c>
-      <c r="D16">
-        <v>226</v>
+          <t>E74.0</t>
+        </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. Relation E75.0 - 226 ist im BfArM nicht vorhanden.  ICD10-Orpha Zuordnung ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">ICD10 Kodierung E74.0 ist nicht eindeutig. ICD10-Orpha Relation ist gemäß Tracer-Diagnosenliste vom Typ 1-m.  Fehlender Orpha Code.  </t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>P_20085770</t>
+          <t>P_20085768</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>F_101663</t>
+          <t>F_101661</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -749,24 +771,26 @@
           <t>E75.2</t>
         </is>
       </c>
-      <c r="D17">
-        <v>324</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Unplausibles Geburtsdatum 2025-01-01 Datum liegt in der Zukunft.</t>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. Relation E75.2 - 342 ist im BfArM nicht vorhanden.  ICD10-Orpha Zuordnung ist gemäß BfArM nicht plausibel. </t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>P_20085770</t>
+          <t>P_20085769</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>F_101664</t>
+          <t>F_101662</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -774,85 +798,119 @@
           <t>E75.0</t>
         </is>
       </c>
-      <c r="D18">
-        <v>796</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Unplausibles Aufnahmedatum 2051-01-02 Datum liegt in der Zukunft.</t>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. Relation E75.0 - 226 ist im BfArM nicht vorhanden.  ICD10-Orpha Zuordnung ist gemäß BfArM nicht plausibel. </t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>P_20085772</t>
+          <t>P_20085770</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>F_101665</t>
+          <t>F_101663</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>D45</t>
+          <t>E75.2</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>324</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Unplausibles Aufnahmedatum 2025-01-02 Datum liegt in der Zukunft.</t>
+          <t>Unplausibles Geburtsdatum 2025-01-01 Datum liegt in der Zukunft.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>P_20085773</t>
+          <t>P_20085772</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>F_101666</t>
+          <t>F_101665</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>E84.0</t>
+          <t>D45</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unplausibles Geburtsdatum 1855-01-01 Max Alter 105. Fehlender Orpha Code.  </t>
+          <t xml:space="preserve">Fehlender Orpha Code.  </t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>P_20085773</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>F_101666</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>E84.0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Unplausibles Geburtsdatum 1855-01-01 Max Alter 105. Fehlender Orpha Code.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
           <t>P_20085774</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>F_101667</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>E84.1</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Unplausibles Geburtsdatum 1840-01-01 Max Alter 105. Fehlender Orpha Code.  </t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Folgende mandatorische Items fehlen:  Diagnosedatum</t>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Orpha Code test ist nicht valide.  Kodierung ist nicht eindeutig. Relation E84.1 - test ist im BfArM nicht vorhanden.  Unplausibles Geburtsdatum 1840-01-01 Max Alter 105. </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Folgende mandatorische Items fehlen:  PLZ , Land , Kontakt-Klasse , Fall-Status , Aufnahmeanlass , DiagnoseRolle , Diagnosedatum</t>
         </is>
       </c>
     </row>
@@ -863,7 +921,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -912,40 +970,45 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>duplication_rate</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>unique_rdCase_relativeFrequency</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>orphaCoding_relativeFrequency</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>orphaCoding_no</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>unique_rdCase_no</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>rdCase_no</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>case_no</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>patient_no</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>inpatientCases_no</t>
         </is>
@@ -961,45 +1024,48 @@
         <v>2020</v>
       </c>
       <c r="C2">
-        <v>11.11</v>
+        <v>46.67</v>
       </c>
       <c r="D2">
-        <v>4.02</v>
+        <v>3.31</v>
       </c>
       <c r="E2">
-        <v>62.5</v>
+        <v>72.22</v>
       </c>
       <c r="F2">
-        <v>6.41</v>
+        <v>3.57</v>
       </c>
       <c r="G2">
-        <v>35.71</v>
+        <v>31.25</v>
       </c>
       <c r="H2">
-        <v>40.91</v>
+        <v>33.33</v>
       </c>
       <c r="I2">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="K2">
-        <v>12</v>
+        <v>0.17</v>
       </c>
       <c r="L2">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="M2">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="N2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O2">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P2">
+        <v>27</v>
+      </c>
+      <c r="Q2">
         <v>10000</v>
       </c>
     </row>
